--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3156965.567930025</v>
+        <v>3154552.655424219</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673421</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8103857.257951973</v>
+        <v>8103857.257951974</v>
       </c>
     </row>
     <row r="11">
@@ -1376,16 +1376,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152335</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>324.8205403013355</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
@@ -1433,7 +1433,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,16 +1607,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444513</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2842774481097</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299265</v>
+        <v>243.9557686402714</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6518993993761</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G17" t="n">
-        <v>272.7201146923169</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3836180449852</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.96361544584039</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7710256165667</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5281121277996</v>
+        <v>259.5281121277994</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137183</v>
+        <v>318.0137923137181</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629255</v>
+        <v>99.02267475629239</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587707</v>
+        <v>80.39132667587691</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423388</v>
+        <v>78.20981630423373</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059596</v>
+        <v>77.1969016805958</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669294</v>
+        <v>97.80166191669278</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198549</v>
+        <v>76.53086857198534</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750281</v>
+        <v>28.12827406750265</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771204</v>
+        <v>20.70800632771189</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097593</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6518993993761</v>
+        <v>152.5874830435883</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6975793111181</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.96361544584036</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U20" t="n">
-        <v>37.67022470661811</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5281121277996</v>
+        <v>259.5281121277994</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.0137923137183</v>
+        <v>318.0137923137181</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629255</v>
+        <v>99.02267475629239</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587707</v>
+        <v>80.39132667587691</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423388</v>
+        <v>78.20981630423373</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059596</v>
+        <v>77.1969016805958</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669294</v>
+        <v>97.80166191669278</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198549</v>
+        <v>76.53086857198534</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750281</v>
+        <v>28.12827406750264</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771204</v>
+        <v>20.70800632771187</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097593</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F23" t="n">
-        <v>338.6518993993761</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6975793111181</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3836180449852</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584053</v>
+        <v>40.96361544584039</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7710256165667</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5281121277996</v>
+        <v>259.5281121277994</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0137923137183</v>
+        <v>318.0137923137181</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629253</v>
+        <v>99.02267475629239</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587705</v>
+        <v>80.39132667587691</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423387</v>
+        <v>78.20981630423373</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059594</v>
+        <v>77.1969016805958</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669292</v>
+        <v>97.80166191669278</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198548</v>
+        <v>76.53086857198534</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750279</v>
+        <v>28.12827406750265</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771203</v>
+        <v>20.70800632771189</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097593</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
         <v>267.5881715429027</v>
@@ -3272,7 +3272,7 @@
         <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
         <v>309.1913255136066</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007101</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307972</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
         <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>89.9432660592188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309234</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621596</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333707</v>
+        <v>134.2912433677303</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480644</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957232</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
         <v>267.5881715429027</v>
@@ -3509,13 +3509,13 @@
         <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
         <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253481</v>
       </c>
       <c r="H38" t="n">
         <v>196.9230441592156</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007101</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307972</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
         <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383247</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052301</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010753</v>
+        <v>93.13769105450056</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846435</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>110.5480262953158</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621596</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480644</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3727,7 @@
         <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.89993312399</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302256</v>
+        <v>310.7752483302253</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377525</v>
+        <v>293.3142984377523</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874279</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390068</v>
+        <v>232.530448498538</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>334.9174524084562</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201984</v>
+        <v>338.9631323201982</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540654</v>
+        <v>222.6491710540652</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.98084433547899</v>
+        <v>37.22916845492063</v>
       </c>
       <c r="T41" t="n">
-        <v>131.9593768063651</v>
+        <v>131.9593768063649</v>
       </c>
       <c r="U41" t="n">
-        <v>179.036578625647</v>
+        <v>179.0365786256468</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368799</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W41" t="n">
-        <v>277.282375384158</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X41" t="n">
-        <v>297.772507345214</v>
+        <v>297.7725073452138</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227986</v>
+        <v>314.2793453227983</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8733868486823</v>
+        <v>107.8733868486821</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537284</v>
+        <v>95.28822776537261</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495736</v>
+        <v>76.65687968495713</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331418</v>
+        <v>74.47536931331395</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967625</v>
+        <v>73.46245468967602</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577323</v>
+        <v>94.067214925773</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106579</v>
+        <v>72.79642158106556</v>
       </c>
       <c r="I43" t="n">
-        <v>24.3938270765831</v>
+        <v>24.39382707658287</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679233</v>
+        <v>16.97355933679211</v>
       </c>
       <c r="S43" t="n">
-        <v>149.2230882337259</v>
+        <v>117.8104319981867</v>
       </c>
       <c r="T43" t="n">
-        <v>147.5903559429142</v>
+        <v>179.0030121784566</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723578</v>
+        <v>214.2532448723576</v>
       </c>
       <c r="V43" t="n">
-        <v>180.179049990573</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W43" t="n">
-        <v>214.564405003336</v>
+        <v>214.5644050033358</v>
       </c>
       <c r="X43" t="n">
-        <v>153.7510620557821</v>
+        <v>153.7510620557819</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188398</v>
+        <v>146.6260600188396</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302256</v>
+        <v>310.7752483302253</v>
       </c>
       <c r="C44" t="n">
-        <v>210.4308972940122</v>
+        <v>293.3142984377523</v>
       </c>
       <c r="D44" t="n">
-        <v>282.7244482874279</v>
+        <v>282.7244482874277</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390068</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>334.9174524084564</v>
+        <v>334.9174524084562</v>
       </c>
       <c r="G44" t="n">
-        <v>338.9631323201984</v>
+        <v>338.9631323201982</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540654</v>
+        <v>172.4551712651756</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492085</v>
+        <v>37.22916845492063</v>
       </c>
       <c r="T44" t="n">
-        <v>131.9593768063651</v>
+        <v>131.9593768063649</v>
       </c>
       <c r="U44" t="n">
-        <v>179.036578625647</v>
+        <v>179.0365786256468</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368799</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X44" t="n">
-        <v>297.772507345214</v>
+        <v>297.7725073452138</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227986</v>
+        <v>314.2793453227983</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486823</v>
+        <v>107.8733868486821</v>
       </c>
       <c r="C46" t="n">
-        <v>126.7008840009114</v>
+        <v>95.28822776537261</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495736</v>
+        <v>76.65687968495713</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331418</v>
+        <v>74.47536931331395</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967625</v>
+        <v>73.46245468967602</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577323</v>
+        <v>94.067214925773</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106579</v>
+        <v>72.79642158106556</v>
       </c>
       <c r="I46" t="n">
-        <v>24.3938270765831</v>
+        <v>24.39382707658287</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679233</v>
+        <v>48.38621557233456</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981869</v>
+        <v>117.8104319981867</v>
       </c>
       <c r="T46" t="n">
-        <v>147.5903559429142</v>
+        <v>147.590355942914</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2532448723578</v>
+        <v>214.2532448723576</v>
       </c>
       <c r="V46" t="n">
-        <v>180.179049990573</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W46" t="n">
-        <v>214.564405003336</v>
+        <v>214.5644050033358</v>
       </c>
       <c r="X46" t="n">
-        <v>153.7510620557821</v>
+        <v>153.7510620557819</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188398</v>
+        <v>146.6260600188396</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1728.817513434839</v>
+        <v>1627.38364477722</v>
       </c>
       <c r="C11" t="n">
-        <v>1407.304629442501</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D11" t="n">
-        <v>1096.488563783823</v>
+        <v>995.054695126204</v>
       </c>
       <c r="E11" t="n">
-        <v>758.1499441336524</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>394.6136722921183</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,16 +5039,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>3041.992567213673</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2736.673544891632</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.657419578626</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y11" t="n">
-        <v>2067.967720550887</v>
+        <v>1966.533851893268</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
         <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,16 +5218,16 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
         <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
         <v>1696.750338179563</v>
@@ -5236,13 +5236,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F14" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>3026.328773681787</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341043</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5361,7 +5361,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5434,13 +5434,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1819.006557415643</v>
+        <v>1473.076688949004</v>
       </c>
       <c r="C17" t="n">
-        <v>1518.957319608903</v>
+        <v>1173.027451142265</v>
       </c>
       <c r="D17" t="n">
-        <v>1229.604900135825</v>
+        <v>883.6750316691864</v>
       </c>
       <c r="E17" t="n">
-        <v>912.7299266712527</v>
+        <v>637.2550633456794</v>
       </c>
       <c r="F17" t="n">
-        <v>570.6573010153171</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1824376897442</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5516,7 +5516,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T17" t="n">
-        <v>3188.541353127065</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U17" t="n">
-        <v>3003.924155534573</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.774547324675</v>
+        <v>2700.397157985443</v>
       </c>
       <c r="W17" t="n">
-        <v>2457.919171188233</v>
+        <v>2416.541781849001</v>
       </c>
       <c r="X17" t="n">
-        <v>2457.919171188233</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y17" t="n">
-        <v>2136.693118346093</v>
+        <v>1790.763249879454</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5592,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061033</v>
+        <v>609.2207265061022</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118685</v>
+        <v>509.1978227118675</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332048</v>
+        <v>427.994462433204</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844837</v>
+        <v>348.994647984483</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0179796202453</v>
+        <v>271.0179796202448</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286363</v>
+        <v>172.2284221286359</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016605</v>
+        <v>94.9245144801659</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5677,46 +5677,46 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>660.8064733261622</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.963518925711</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.371895631576</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.701494551989</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.308994985649</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138166</v>
+        <v>1955.919291138164</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029366</v>
+        <v>1935.002113029364</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989864</v>
+        <v>1812.229507989862</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.376171693062</v>
+        <v>1659.37617169306</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.186583952378</v>
+        <v>1439.186583952376</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.415374880163</v>
+        <v>1253.415374880161</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.911483976874</v>
+        <v>1032.911483976873</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125291</v>
+        <v>873.8352122125277</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.955912202671</v>
+        <v>721.9559122026698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1661.020543853841</v>
+        <v>1473.076688949004</v>
       </c>
       <c r="C20" t="n">
-        <v>1360.971306047101</v>
+        <v>1173.027451142265</v>
       </c>
       <c r="D20" t="n">
-        <v>1071.618886574023</v>
+        <v>883.6750316691864</v>
       </c>
       <c r="E20" t="n">
-        <v>754.7439131094505</v>
+        <v>566.8000582046143</v>
       </c>
       <c r="F20" t="n">
-        <v>412.6712874535149</v>
+        <v>412.6712874535148</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T20" t="n">
-        <v>3188.541353127066</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U20" t="n">
-        <v>3150.490621100179</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V20" t="n">
-        <v>2888.34101289028</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W20" t="n">
-        <v>2604.485636753838</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2299.93315762643</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y20" t="n">
-        <v>1978.70710478429</v>
+        <v>1790.763249879454</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L21" t="n">
         <v>765.1517452158131</v>
@@ -5841,34 +5841,34 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061033</v>
+        <v>609.2207265061022</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118685</v>
+        <v>509.1978227118675</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332048</v>
+        <v>427.994462433204</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844837</v>
+        <v>348.994647984483</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202453</v>
+        <v>271.0179796202448</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2284221286363</v>
+        <v>172.2284221286359</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016607</v>
+        <v>94.92451448016588</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.371895631578</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
-        <v>1645.701494551992</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.308994985651</v>
+        <v>1878.308994985649</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.919291138166</v>
+        <v>1955.919291138164</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.002113029366</v>
+        <v>1935.002113029364</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.229507989864</v>
+        <v>1812.229507989862</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.376171693062</v>
+        <v>1659.37617169306</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.186583952378</v>
+        <v>1439.186583952376</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.415374880163</v>
+        <v>1253.415374880161</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.911483976874</v>
+        <v>1032.911483976873</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125291</v>
+        <v>873.8352122125277</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.955912202671</v>
+        <v>721.9559122026698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.193195237165</v>
+        <v>1898.193195237164</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.143957430425</v>
+        <v>1598.143957430424</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.791537957347</v>
+        <v>1308.791537957346</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927748</v>
+        <v>991.9165644927737</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368392</v>
+        <v>649.8439388368383</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155074</v>
+        <v>303.6847678155073</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794661</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794661</v>
       </c>
       <c r="J23" t="n">
-        <v>431.2992265373251</v>
+        <v>263.8935775169721</v>
       </c>
       <c r="K23" t="n">
-        <v>765.1186002271716</v>
+        <v>597.7129512068186</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.15281347558</v>
+        <v>1048.747164455227</v>
       </c>
       <c r="M23" t="n">
-        <v>1749.684718147505</v>
+        <v>1582.279069127152</v>
       </c>
       <c r="N23" t="n">
-        <v>2296.463535206287</v>
+        <v>2168.679882898213</v>
       </c>
       <c r="O23" t="n">
-        <v>2799.436006085624</v>
+        <v>3048.644533227668</v>
       </c>
       <c r="P23" t="n">
-        <v>3194.210372442803</v>
+        <v>3443.418899584846</v>
       </c>
       <c r="Q23" t="n">
-        <v>3626.646005666278</v>
+        <v>3691.705261340528</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897333</v>
+        <v>3750.722327897331</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.344938558101</v>
+        <v>3709.344938558098</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075995</v>
+        <v>3572.280470075992</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483503</v>
+        <v>3387.663272483501</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273604</v>
+        <v>3125.513664273602</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.658288137162</v>
+        <v>2841.658288137161</v>
       </c>
       <c r="X23" t="n">
-        <v>2537.105809009754</v>
+        <v>2537.105809009753</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167615</v>
+        <v>2215.879756167613</v>
       </c>
     </row>
     <row r="24">
@@ -6051,22 +6051,22 @@
         <v>626.6587456644936</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4212906590382</v>
+        <v>467.421290659038</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859231</v>
+        <v>320.886732685923</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185412</v>
+        <v>184.5236325185411</v>
       </c>
       <c r="H24" t="n">
-        <v>94.0217381564087</v>
+        <v>94.02173815640865</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794661</v>
       </c>
       <c r="J24" t="n">
-        <v>168.691716048564</v>
+        <v>168.6917160485639</v>
       </c>
       <c r="K24" t="n">
         <v>406.9559150289111</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318665</v>
+        <v>617.7230566318655</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376315</v>
+        <v>517.7001528376308</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589679</v>
+        <v>436.4967925589672</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102468</v>
+        <v>357.4969781102462</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460085</v>
+        <v>279.520309746008</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543995</v>
+        <v>180.7307522543991</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059293</v>
+        <v>103.4268446059291</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794661</v>
       </c>
       <c r="J25" t="n">
         <v>120.1370790048822</v>
       </c>
       <c r="K25" t="n">
-        <v>324.1242619537586</v>
+        <v>324.1242619537585</v>
       </c>
       <c r="L25" t="n">
-        <v>640.6840604022548</v>
+        <v>640.6840604022547</v>
       </c>
       <c r="M25" t="n">
-        <v>984.8411060018038</v>
+        <v>1013.465849051475</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.874225757341</v>
+        <v>1354.874225757339</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.203824677754</v>
+        <v>1654.203824677753</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111414</v>
+        <v>1886.811325111412</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263929</v>
+        <v>1964.421621263927</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.504443155129</v>
+        <v>1943.504443155127</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.731838115627</v>
+        <v>1820.731838115626</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.878501818825</v>
+        <v>1667.878501818824</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.688914078141</v>
+        <v>1447.688914078139</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.917705005926</v>
+        <v>1261.917705005925</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.413814102638</v>
+        <v>1041.413814102636</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3375423382922</v>
+        <v>882.337542338291</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284342</v>
+        <v>730.458242328433</v>
       </c>
     </row>
     <row r="26">
@@ -6200,61 +6200,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.315497911347</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2456.09431497013</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O26" t="n">
-        <v>2959.066785849467</v>
+        <v>2826.495488321722</v>
       </c>
       <c r="P26" t="n">
-        <v>3672.421873296413</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982171</v>
@@ -6403,31 +6403,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.315497911347</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2456.09431497013</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>2959.066785849467</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3672.421873296413</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,73 +6674,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>822.9179334642258</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1273.952146712635</v>
       </c>
       <c r="M32" t="n">
-        <v>1807.484051384558</v>
+        <v>1807.484051384559</v>
       </c>
       <c r="N32" t="n">
-        <v>2787.236323611205</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490542</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973153</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="35">
@@ -6923,52 +6923,52 @@
         <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
@@ -7011,7 +7011,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228008</v>
@@ -7020,19 +7020,19 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127567</v>
+        <v>599.6022649647795</v>
       </c>
       <c r="C37" t="n">
-        <v>571.9707875848499</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D37" t="n">
-        <v>421.8541481725141</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E37" t="n">
-        <v>273.941054590121</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919202</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404824</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1791.646827515028</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332018</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.994696236857</v>
+        <v>934.0185561150365</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.676579912683</v>
+        <v>804.7004397908626</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.5554353429965</v>
+        <v>682.5792952211758</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228008</v>
@@ -7257,19 +7257,19 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650702</v>
+        <v>444.8926667912273</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110065</v>
+        <v>374.6279184371637</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725141</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639643</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>225.7225416660539</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404824</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7357,7 +7357,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
         <v>1612.513483058689</v>
@@ -7369,13 +7369,13 @@
         <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>877.9803925153276</v>
+        <v>877.9803925153278</v>
       </c>
       <c r="X40" t="n">
-        <v>748.6622761911535</v>
+        <v>748.6622761911538</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214667</v>
+        <v>527.8696970476236</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1528.757396066982</v>
+        <v>1503.254038370578</v>
       </c>
       <c r="C41" t="n">
-        <v>1232.480326937939</v>
+        <v>1206.976969241535</v>
       </c>
       <c r="D41" t="n">
-        <v>946.9000761425577</v>
+        <v>1206.976969241535</v>
       </c>
       <c r="E41" t="n">
-        <v>633.7972713556824</v>
+        <v>972.0977283339205</v>
       </c>
       <c r="F41" t="n">
-        <v>633.7972713556824</v>
+        <v>633.7972713556819</v>
       </c>
       <c r="G41" t="n">
-        <v>291.4102690120476</v>
+        <v>291.4102690120473</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7433,28 +7433,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.503958644042</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T41" t="n">
-        <v>3180.211658839632</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>2999.366629924838</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V41" t="n">
-        <v>2740.989190392635</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W41" t="n">
-        <v>2460.90598293389</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X41" t="n">
-        <v>2160.125672484179</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y41" t="n">
-        <v>1842.671788319735</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7476,10 +7476,10 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064548</v>
@@ -7488,34 +7488,34 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8155457622266</v>
+        <v>582.815545762225</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456885</v>
+        <v>486.5648106456871</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1336190447214</v>
+        <v>409.1336190447203</v>
       </c>
       <c r="E43" t="n">
-        <v>333.905973273697</v>
+        <v>333.9059732736961</v>
       </c>
       <c r="F43" t="n">
-        <v>259.7014735871553</v>
+        <v>259.7014735871546</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6840847732429</v>
+        <v>164.6840847732425</v>
       </c>
       <c r="H43" t="n">
-        <v>91.1523458024694</v>
+        <v>91.15234580246917</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1910.149538657389</v>
+        <v>1910.14953865739</v>
       </c>
       <c r="S43" t="n">
-        <v>1759.419146502111</v>
+        <v>1791.149102295585</v>
       </c>
       <c r="T43" t="n">
-        <v>1610.337978883006</v>
+        <v>1610.337978883003</v>
       </c>
       <c r="U43" t="n">
-        <v>1393.920559820018</v>
+        <v>1393.920559820015</v>
       </c>
       <c r="V43" t="n">
-        <v>1211.9215194255</v>
+        <v>1211.921519425497</v>
       </c>
       <c r="W43" t="n">
-        <v>995.1897971999077</v>
+        <v>995.1897971999055</v>
       </c>
       <c r="X43" t="n">
-        <v>839.8856941132591</v>
+        <v>839.885694113257</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.7785627810977</v>
+        <v>691.7785627810958</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1783.337245829322</v>
+        <v>1503.254038370578</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.780783916179</v>
+        <v>1206.976969241536</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.200533120797</v>
+        <v>921.3967184461533</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339214</v>
+        <v>921.3967184461533</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7972713556825</v>
+        <v>583.0962614679146</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120475</v>
+        <v>240.70925912428</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7646,52 +7646,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947635</v>
+        <v>3288.000600947636</v>
       </c>
       <c r="T44" t="n">
         <v>3154.708301143226</v>
       </c>
       <c r="U44" t="n">
-        <v>2973.863272228431</v>
+        <v>2973.863272228432</v>
       </c>
       <c r="V44" t="n">
         <v>2715.48583269623</v>
       </c>
       <c r="W44" t="n">
-        <v>2715.48583269623</v>
+        <v>2435.402625237485</v>
       </c>
       <c r="X44" t="n">
-        <v>2414.705522246519</v>
+        <v>2134.622314787774</v>
       </c>
       <c r="Y44" t="n">
-        <v>2097.251638082076</v>
+        <v>1817.168430623331</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>614.5455015557</v>
+        <v>582.815545762225</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456885</v>
+        <v>486.5648106456871</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447214</v>
+        <v>409.1336190447203</v>
       </c>
       <c r="E46" t="n">
-        <v>333.905973273697</v>
+        <v>333.9059732736961</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871553</v>
+        <v>259.7014735871546</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732429</v>
+        <v>164.6840847732425</v>
       </c>
       <c r="H46" t="n">
-        <v>91.1523458024694</v>
+        <v>91.15234580246917</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218343</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1910.149538657389</v>
+        <v>1878.419582863912</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.149102295584</v>
+        <v>1759.419146502108</v>
       </c>
       <c r="T46" t="n">
-        <v>1642.067934676479</v>
+        <v>1610.337978883003</v>
       </c>
       <c r="U46" t="n">
-        <v>1425.650515613491</v>
+        <v>1393.920559820015</v>
       </c>
       <c r="V46" t="n">
-        <v>1243.651475218973</v>
+        <v>1211.921519425497</v>
       </c>
       <c r="W46" t="n">
-        <v>1026.919752993381</v>
+        <v>995.1897971999055</v>
       </c>
       <c r="X46" t="n">
-        <v>871.6156499067324</v>
+        <v>839.885694113257</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.508518574571</v>
+        <v>691.7785627810958</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331807</v>
+        <v>161.283346633181</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772607</v>
+        <v>190.4708996772612</v>
       </c>
       <c r="L8" t="n">
-        <v>199.0214867114929</v>
+        <v>199.0214867114935</v>
       </c>
       <c r="M8" t="n">
-        <v>189.460420549996</v>
+        <v>189.4604205499967</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253947</v>
+        <v>187.8656757253954</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001295</v>
+        <v>190.8661912001302</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610373</v>
+        <v>197.7493741610378</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168177</v>
+        <v>197.1608845168181</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.06718257237</v>
+        <v>115.0671825723702</v>
       </c>
       <c r="K9" t="n">
-        <v>117.723875248454</v>
+        <v>117.7238752484543</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888312</v>
+        <v>111.5038326888317</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586499</v>
+        <v>110.5673213586505</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809735</v>
+        <v>98.9395225680979</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195519</v>
+        <v>112.9545713195524</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755397</v>
+        <v>110.1843514755401</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137821</v>
+        <v>124.0787517137823</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747613</v>
+        <v>119.3562654747616</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960286</v>
+        <v>122.5532519960288</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290569</v>
+        <v>111.7023147290572</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297868</v>
+        <v>123.693438829787</v>
       </c>
       <c r="P10" t="n">
-        <v>125.095621918209</v>
+        <v>125.0956219182093</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>40.02221890129124</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.0093651189832</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>190.2350110279888</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.40458911672741</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0017854473915</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>12.68816924374491</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>221.2853655744088</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>52.18875040233411</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K41" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843574</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>39.12604873352533</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796372</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>5.981554650710727</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>69.75045508965495</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>69.97746461880126</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584056</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5069543361337</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>186.0644163557877</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3836180449852</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584055</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>145.1008009099486</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25631,13 +25631,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>282.7244482874277</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>77.44132824046856</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084564</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>25.24832411944186</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25865,13 +25865,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>82.88340114374036</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>309.9717767390065</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978888961</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>277.282375384158</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>759480.2933082685</v>
+        <v>759480.2933082688</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661252.9890891566</v>
+        <v>661252.9890891569</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>661252.9890891567</v>
+        <v>661252.9890891569</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703412.3098821315</v>
+        <v>703412.3098821314</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>714284.6222954184</v>
+        <v>714284.6222954185</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>688338.4515082557</v>
+        <v>688338.4515082556</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664686.3649636686</v>
+        <v>664686.3649636687</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>664686.3649636684</v>
+        <v>664686.3649636687</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132605</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132605</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="D2" t="n">
-        <v>757847.7578030196</v>
+        <v>757847.7578030198</v>
       </c>
       <c r="E2" t="n">
-        <v>707191.1841481044</v>
+        <v>707191.1841481045</v>
       </c>
       <c r="F2" t="n">
-        <v>707191.184148104</v>
+        <v>707191.1841481037</v>
       </c>
       <c r="G2" t="n">
-        <v>729095.0883515326</v>
+        <v>729095.0883515322</v>
       </c>
       <c r="H2" t="n">
-        <v>729095.0883515326</v>
+        <v>729095.0883515321</v>
       </c>
       <c r="I2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244611</v>
       </c>
       <c r="J2" t="n">
+        <v>759463.6371244616</v>
+      </c>
+      <c r="K2" t="n">
         <v>759463.6371244617</v>
       </c>
-      <c r="K2" t="n">
-        <v>759463.6371244616</v>
-      </c>
       <c r="L2" t="n">
-        <v>759463.6371244615</v>
+        <v>759463.6371244614</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244631</v>
       </c>
       <c r="N2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="O2" t="n">
-        <v>732944.6309987127</v>
+        <v>732944.6309987134</v>
       </c>
       <c r="P2" t="n">
-        <v>732944.6309987134</v>
+        <v>732944.6309987133</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004265057</v>
+        <v>49603.99004264973</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112466</v>
+        <v>1114814.601112467</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899418</v>
+        <v>16999.2077789943</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716357</v>
+        <v>28261.85161716342</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.4523822541</v>
+        <v>40637.45238225422</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899417</v>
+        <v>16999.20777899425</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>425002.211291626</v>
+        <v>425002.2112916263</v>
       </c>
       <c r="E4" t="n">
-        <v>58825.50137861085</v>
+        <v>58825.50137861086</v>
       </c>
       <c r="F4" t="n">
-        <v>58825.50137861085</v>
+        <v>58825.50137861086</v>
       </c>
       <c r="G4" t="n">
-        <v>72234.15779441223</v>
+        <v>72234.15779441233</v>
       </c>
       <c r="H4" t="n">
-        <v>72234.15779441223</v>
+        <v>72234.1577944123</v>
       </c>
       <c r="I4" t="n">
         <v>87358.26236286771</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173087</v>
+        <v>84858.15940173088</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173085</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="L4" t="n">
         <v>84858.15940173084</v>
       </c>
       <c r="M4" t="n">
+        <v>90964.01098815704</v>
+      </c>
+      <c r="N4" t="n">
         <v>90964.01098815707</v>
       </c>
-      <c r="N4" t="n">
-        <v>90964.01098815705</v>
-      </c>
       <c r="O4" t="n">
-        <v>74600.57793586675</v>
+        <v>74600.57793586688</v>
       </c>
       <c r="P4" t="n">
-        <v>74600.57793586672</v>
+        <v>74600.5779358669</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253473</v>
+        <v>34890.26850253471</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.8763202471</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.8763202471</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582715</v>
+        <v>86503.64721582712</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>80355.82754432672</v>
+        <v>80355.82754432673</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.82754432672</v>
+        <v>80355.82754432673</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282553.7633174401</v>
+        <v>282549.3497395718</v>
       </c>
       <c r="C6" t="n">
-        <v>282553.76331744</v>
+        <v>282549.3497395717</v>
       </c>
       <c r="D6" t="n">
-        <v>248351.2879662083</v>
+        <v>248346.9207247999</v>
       </c>
       <c r="E6" t="n">
-        <v>-544704.4116647545</v>
+        <v>-544845.6885646912</v>
       </c>
       <c r="F6" t="n">
-        <v>570110.1894477115</v>
+        <v>569968.912547775</v>
       </c>
       <c r="G6" t="n">
-        <v>559819.8464578791</v>
+        <v>559737.7692990327</v>
       </c>
       <c r="H6" t="n">
-        <v>576819.0542368733</v>
+        <v>576736.977078027</v>
       </c>
       <c r="I6" t="n">
-        <v>557339.8759286035</v>
+        <v>557339.8759286029</v>
       </c>
       <c r="J6" t="n">
-        <v>544590.0836656706</v>
+        <v>544590.0836656704</v>
       </c>
       <c r="K6" t="n">
-        <v>585227.5360479245</v>
+        <v>585227.5360479248</v>
       </c>
       <c r="L6" t="n">
-        <v>568228.3282689303</v>
+        <v>568228.3282689301</v>
       </c>
       <c r="M6" t="n">
-        <v>383812.928837331</v>
+        <v>383812.928837332</v>
       </c>
       <c r="N6" t="n">
-        <v>585981.0288300554</v>
+        <v>585981.0288300551</v>
       </c>
       <c r="O6" t="n">
-        <v>577988.2255185193</v>
+        <v>577916.5525289907</v>
       </c>
       <c r="P6" t="n">
-        <v>577988.22551852</v>
+        <v>577916.5525289905</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I2" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="P2" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076765</v>
+        <v>57.92057351076667</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
@@ -26805,28 +26805,28 @@
         <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
+        <v>937.6805819743327</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1014.336461208615</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="I4" t="n">
-        <v>937.6805819743333</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1014.336461208614</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374272</v>
+        <v>21.24900972374287</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484983</v>
+        <v>25.72612689484967</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374271</v>
+        <v>21.24900972374282</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951227</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076765</v>
+        <v>57.92057351076667</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082531</v>
+        <v>1031.856127082532</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720405</v>
+        <v>106.2791265720399</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428109</v>
+        <v>76.655879234282</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374272</v>
+        <v>21.24900972374287</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484983</v>
+        <v>25.72612689484967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.0901626244419</v>
+        <v>337.090162624442</v>
       </c>
       <c r="I8" t="n">
-        <v>201.499073850712</v>
+        <v>201.4990738507121</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.24257230981</v>
+        <v>135.2425723098102</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596057</v>
+        <v>203.7140793596058</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858935</v>
+        <v>85.10723188858944</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643155</v>
+        <v>92.42270548643168</v>
       </c>
       <c r="S9" t="n">
         <v>169.3690802659312</v>
@@ -28029,13 +28029,13 @@
         <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3094707112973</v>
+        <v>152.3094707112974</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284917</v>
+        <v>85.9747817528493</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657776</v>
+        <v>10.13465691657797</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156848</v>
+        <v>77.41603665156862</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348046</v>
+        <v>172.5970773348047</v>
       </c>
       <c r="S10" t="n">
         <v>222.1963728005765</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859237</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.91388186835428</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.91388186835671</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28992,40 +28992,40 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>28.91388186835655</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>28.91388186835388</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233544</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="C23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="D23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="E23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="F23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="G23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="T23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="U23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="V23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="W23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="X23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="C25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="D25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="E25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="F25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="G25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="H25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="I25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,10 +29226,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.91388186835451</v>
       </c>
       <c r="N25" t="n">
-        <v>28.9138818683561</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="S25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="T25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="U25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="V25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="W25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="X25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.2241463423353</v>
+        <v>68.22414634233544</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859352</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859233</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>55.47778196371245</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810482</v>
+        <v>55.47778196371155</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810482</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810482</v>
+        <v>55.47778196371179</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>55.47778196371245</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="C41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="D41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="E41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="F41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="G41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="H41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="T41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="U41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="V41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="W41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="X41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="C43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="D43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="E43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="F43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="G43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="H43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="I43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="S43" t="n">
-        <v>40.54593709771603</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="T43" t="n">
-        <v>71.958593333255</v>
+        <v>40.5459370977126</v>
       </c>
       <c r="U43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="V43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="W43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="X43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="C44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="D44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="E44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="F44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="G44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="H44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="T44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="U44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="V44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="W44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="X44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="C46" t="n">
-        <v>40.54593709771645</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="D46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="E46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="F46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="G46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="H46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="I46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.958593333255</v>
+        <v>40.54593709771277</v>
       </c>
       <c r="S46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="T46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="U46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="V46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="W46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="X46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.958593333255</v>
+        <v>71.95859333325522</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764527</v>
+        <v>0.2328465266764488</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325222</v>
+        <v>2.384639491325181</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693951</v>
+        <v>8.9768157196938</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350559</v>
+        <v>19.76255789350526</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771984</v>
+        <v>29.61895136771934</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849434</v>
+        <v>36.74492825849372</v>
       </c>
       <c r="M8" t="n">
-        <v>40.8858126772767</v>
+        <v>40.88581267727601</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119618</v>
+        <v>41.54738787119548</v>
       </c>
       <c r="O8" t="n">
-        <v>39.2320202215572</v>
+        <v>39.23202022155654</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423227</v>
+        <v>33.4836215942317</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.1448053576318</v>
+        <v>25.14480535763137</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133973</v>
+        <v>14.62654563133949</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639671</v>
+        <v>5.305990226639581</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526172</v>
+        <v>1.019285670526155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411621</v>
+        <v>0.0186277221341159</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986323</v>
+        <v>0.1245838750986302</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610476</v>
+        <v>1.203217951610455</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825718</v>
+        <v>4.289400962825646</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429666</v>
+        <v>11.77044409429646</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590503</v>
+        <v>20.11756372590469</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104295</v>
+        <v>27.0505470910425</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336837</v>
+        <v>31.56671256336783</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523595</v>
+        <v>32.40218951523541</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489257</v>
+        <v>29.64167312489207</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593879059</v>
+        <v>23.79005593879019</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223945</v>
+        <v>15.90302237223918</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211578</v>
+        <v>7.735128666211446</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906612</v>
+        <v>2.314090837906573</v>
       </c>
       <c r="T9" t="n">
-        <v>0.502160443928259</v>
+        <v>0.5021604439282505</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278445</v>
+        <v>0.008196307572278306</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390892</v>
+        <v>0.1044469358390874</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693574</v>
+        <v>0.9286282113693417</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960975</v>
+        <v>3.141004215960921</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823606</v>
+        <v>7.384398363823481</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930509</v>
+        <v>12.13483490930488</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647696</v>
+        <v>15.52841080647669</v>
       </c>
       <c r="M10" t="n">
-        <v>16.3725319515765</v>
+        <v>16.37253195157622</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617627</v>
+        <v>15.983229736176</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205599</v>
+        <v>14.76309962205575</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093856</v>
+        <v>12.63238213093835</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125915</v>
+        <v>8.746006600125767</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364864</v>
+        <v>4.696314042364785</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395763</v>
+        <v>1.820225236395732</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124719</v>
+        <v>0.4462732713124644</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591223054</v>
+        <v>0.005697105591222958</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32330,7 +32330,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33515,10 +33515,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316586</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35817,7 +35817,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36045,7 +36045,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385524</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.3081204062504</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>373.7708280358966</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>263.8709530134644</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>592.3240543142027</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.8036699227027</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597709</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36522,10 +36522,10 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5472612618383</v>
       </c>
       <c r="N25" t="n">
-        <v>373.7708280358962</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
@@ -36595,7 +36595,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36607,13 +36607,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>698.2880119162079</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>329.1988939204469</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36832,7 +36832,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356106</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>263.4824740474644</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>558.4766521298093</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>591.1098662325609</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
@@ -37163,10 +37163,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629131</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302282</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554013</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
